--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4030.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4030.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.958631865960527</v>
+        <v>4.108185291290283</v>
       </c>
       <c r="B1">
-        <v>2.49192487724376</v>
+        <v>4.408207893371582</v>
       </c>
       <c r="C1">
-        <v>2.662970041229109</v>
+        <v>6.987278938293457</v>
       </c>
       <c r="D1">
-        <v>3.264551774917431</v>
+        <v>7.156269550323486</v>
       </c>
       <c r="E1">
-        <v>1.903894414425095</v>
+        <v>5.498712062835693</v>
       </c>
     </row>
   </sheetData>
